--- a/data/node_df.xlsx
+++ b/data/node_df.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,360 +509,580 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>방역</t>
+          <t>금요일</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>소독</t>
+          <t>방역</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>선물</t>
+          <t>소독</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>겨울</t>
+          <t>선물</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>집</t>
+          <t>마음</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>사람</t>
+          <t>겨울</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>마스크</t>
+          <t>집</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>157</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>여행</t>
+          <t>사람</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>109</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>육아</t>
+          <t>마스크</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>54</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>남자</t>
+          <t>사랑</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>부산</t>
+          <t>여행</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>맛집</t>
+          <t>육아</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>다이어트</t>
+          <t>남자</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>카페</t>
+          <t>부산</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>간호사</t>
+          <t>맛집</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>필라테스</t>
+          <t>다이어트</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>펜션</t>
+          <t>필수</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>울산</t>
+          <t>뷰티</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>인천</t>
+          <t>카페</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>요가</t>
+          <t>간호사</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>린지</t>
+          <t>필라테스</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>짐</t>
+          <t>펜션</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>집콕</t>
+          <t>하루</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>유튜브</t>
+          <t>울산</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>사회</t>
+          <t>화이팅</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>광주</t>
+          <t>항상</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>요한계시록</t>
+          <t>프로필</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>예배</t>
+          <t>검사</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>네일</t>
+          <t>인천</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>요가</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>터닝</t>
+          <t>달</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>이벤트</t>
+          <t>백신</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>외대</t>
+          <t>주식</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>린지</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>갈비</t>
+          <t>극복</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>107</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>짐</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>가족</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>집콕</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>금</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>센터</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>유튜브</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>사회</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>매장</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>광주</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>요한계시록</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>예배</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>교회</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>회개</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>네일</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>포인트</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>터닝</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>샵</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>디자인</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>이벤트</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>외대</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>미용실</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>갈비</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
           <t>임창정</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B65" t="n">
         <v>60</v>
       </c>
     </row>
